--- a/resources/testData/MJ_B2B_Logout.xlsx
+++ b/resources/testData/MJ_B2B_Logout.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="526" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>TestCaseId</t>
   </si>
@@ -52,13 +52,29 @@
   </si>
   <si>
     <t>Logout</t>
+  </si>
+  <si>
+    <t>assertText</t>
+  </si>
+  <si>
+    <t>//abc</t>
+  </si>
+  <si>
+    <t>def</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -87,8 +103,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -107,8 +124,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table14" displayName="Table14" ref="A1:F3" totalsRowShown="0">
-  <autoFilter ref="A1:F3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table14" displayName="Table14" ref="A1:F4" totalsRowShown="0">
+  <autoFilter ref="A1:F4" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="TestCaseId"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Action"/>
@@ -384,71 +401,89 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <v>3000</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="1" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
